--- a/db_meta.xlsx
+++ b/db_meta.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LazyCROW\Documents\Argusoft Workspace\Employee-Mng-Sys\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE639627-8525-4C51-828E-F2D417C6F627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rename" sheetId="1" r:id="rId1"/>
+    <sheet name="Tables" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,10 +25,224 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Dept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add </t>
+  </si>
+  <si>
+    <t xml:space="preserve">View </t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Notice</t>
+  </si>
+  <si>
+    <t>datatable</t>
+  </si>
+  <si>
+    <t>searching</t>
+  </si>
+  <si>
+    <t>pagination</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>init setup</t>
+  </si>
+  <si>
+    <t>Recruitment</t>
+  </si>
+  <si>
+    <t>Calender</t>
+  </si>
+  <si>
+    <t>dept show</t>
+  </si>
+  <si>
+    <t>emp show</t>
+  </si>
+  <si>
+    <t>hour work show</t>
+  </si>
+  <si>
+    <t>ProjectMng</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>CREATE TABLE IF NOT EXISTS public.department</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    id integer NOT NULL DEFAULT nextval('department_id_seq'::regclass),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    dept_name character varying(64) COLLATE pg_catalog."default" NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CONSTRAINT department_pkey PRIMARY KEY (id)</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE IF NOT EXISTS public.employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    id integer NOT NULL DEFAULT nextval('employee_id_seq'::regclass),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    first_name character varying(64) COLLATE pg_catalog."default" NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    last_name character varying(64) COLLATE pg_catalog."default" NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    phone character varying(10) COLLATE pg_catalog."default" NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    email character varying(240) COLLATE pg_catalog."default" NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    pwd character varying(32) COLLATE pg_catalog."default" NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    dept_id integer,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CONSTRAINT employee_pkey PRIMARY KEY (id),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CONSTRAINT emp_dept_fk FOREIGN KEY (dept_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        REFERENCES public.department (id) MATCH SIMPLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ON UPDATE NO ACTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ON DELETE SET NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NOT VALID</t>
+  </si>
+  <si>
+    <t>Staff_leave</t>
+  </si>
+  <si>
+    <t>CREATE TABLE IF NOT EXISTS public.staff_leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    id integer NOT NULL DEFAULT nextval('staff_leave_id_seq'::regclass),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    subject character varying(128) COLLATE pg_catalog."default" NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    created_at timestamp with time zone NOT NULL DEFAULT now(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    updated_at timestamp with time zone DEFAULT now(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    deleted_at timestamp with time zone,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    description character varying(2000) COLLATE pg_catalog."default" NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    approved bit(1) NOT NULL DEFAULT (0)::bit(1),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    employee_id integer NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    from_date date NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    to_date date NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    approved_on timestamp with time zone,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    approved_by integer,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CONSTRAINT staff_leave_pkey PRIMARY KEY (id),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CONSTRAINT approve_emp_fk FOREIGN KEY (approved_by)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        REFERENCES public.employee (id) MATCH SIMPLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ON DELETE NO ACTION,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CONSTRAINT req_emp_fk FOREIGN KEY (employee_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ON DELETE NO ACTION</t>
+  </si>
+  <si>
+    <t>Other Tables</t>
+  </si>
+  <si>
+    <t>dept_designations</t>
+  </si>
+  <si>
+    <t>To Improve</t>
+  </si>
+  <si>
+    <t>emp-designation -relationship</t>
+  </si>
+  <si>
+    <t>toadd-rank</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +270,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +553,384 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B66195E-D3E1-497E-B045-BCF1D4530977}">
+  <dimension ref="A1:B48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="65" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/db_meta.xlsx
+++ b/db_meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LazyCROW\Documents\Argusoft Workspace\Employee-Mng-Sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE639627-8525-4C51-828E-F2D417C6F627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5765DF5-07C0-4212-B6A2-C0D1496B8928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,7 +557,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
